--- a/Spider/17 作家信息爬虫/data.xlsx
+++ b/Spider/17 作家信息爬虫/data.xlsx
@@ -1748,9 +1748,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="27">
@@ -1790,32 +1790,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1827,7 +1818,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1849,8 +1893,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1858,7 +1903,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1881,13 +1926,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1895,48 +1933,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1956,91 +1956,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2058,13 +1980,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,7 +2016,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2088,13 +2094,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2106,7 +2106,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2118,25 +2136,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2165,26 +2165,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2193,7 +2184,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2205,15 +2196,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2233,173 +2215,191 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2916,13 +2916,13 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="6.625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="7" customWidth="1"/>
     <col min="4" max="4" width="5.75" style="8" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="4" customWidth="1"/>

--- a/Spider/17 作家信息爬虫/data.xlsx
+++ b/Spider/17 作家信息爬虫/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="通讯（代码修改）" sheetId="1" r:id="rId1"/>
@@ -1747,11 +1747,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1790,7 +1790,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1799,19 +1806,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1831,40 +1848,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1877,33 +1869,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1933,10 +1901,42 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1956,31 +1956,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1992,61 +1980,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2064,55 +2016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2130,13 +2034,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2147,6 +2147,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2165,17 +2174,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2183,8 +2201,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2215,191 +2233,173 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2659,7 +2659,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -2912,21 +2912,21 @@
   <dimension ref="A1:BD271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="18.25" style="7" customWidth="1"/>
+    <col min="2" max="2" width="6.625" style="7" customWidth="1"/>
     <col min="3" max="3" width="8.75" style="7" customWidth="1"/>
     <col min="4" max="4" width="5.75" style="8" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="7.375" style="9" customWidth="1"/>
     <col min="7" max="7" width="5.75" style="7" customWidth="1"/>
     <col min="8" max="8" width="9" style="7" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="7" customWidth="1"/>
